--- a/story/Activity Story 活动剧情/act9d0 Darknights Memoir 生于黑夜 闇夜に生きる/level_act9d0_06_beg.xlsx
+++ b/story/Activity Story 活动剧情/act9d0 Darknights Memoir 生于黑夜 闇夜に生きる/level_act9d0_06_beg.xlsx
@@ -3040,7 +3040,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  아네스는…… 사람 보내서 따로 확인해 볼게…… 쳇……
+    <t xml:space="preserve">[name="W"]  이네스는…… 사람 보내서 따로 확인해 볼게…… 쳇……
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act9d0 Darknights Memoir 生于黑夜 闇夜に生きる/level_act9d0_06_beg.xlsx
+++ b/story/Activity Story 活动剧情/act9d0 Darknights Memoir 生于黑夜 闇夜に生きる/level_act9d0_06_beg.xlsx
@@ -1836,7 +1836,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  The impression I got from him... was that he has become much more than a “warrior.”
+    <t xml:space="preserve">[name="Ines"]  The impression I got from him... was that he has become much more than a 'warrior.'
 </t>
   </si>
   <si>
@@ -1988,7 +1988,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  We’re simply in a “cooperative” relationship, and I’m the leader now. If I get on this table and start grovelling, will Talulah be happy?
+    <t xml:space="preserve">[name="W"]  We’re simply in a 'cooperative' relationship, and I’m the leader now. If I get on this table and start grovelling, will Talulah be happy?
 </t>
   </si>
   <si>
@@ -2188,7 +2188,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  All she told me was, Talulah apparently had “two shadows.” From her reaction, this isn’t some common byproduct of Arts interference.
+    <t xml:space="preserve">[name="Hoederer"]  All she told me was, Talulah apparently had 'two shadows.' From her reaction, this isn’t some common byproduct of Arts interference.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act9d0 Darknights Memoir 生于黑夜 闇夜に生きる/level_act9d0_06_beg.xlsx
+++ b/story/Activity Story 活动剧情/act9d0 Darknights Memoir 生于黑夜 闇夜に生きる/level_act9d0_06_beg.xlsx
@@ -1772,7 +1772,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">10:14 PM \ Clear
+    <t xml:space="preserve">10:14 P.M. \ Clear
 </t>
   </si>
   <si>
@@ -1780,11 +1780,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  ...You’ve met all the Reunion leaders.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  What’d you think?
+    <t xml:space="preserve">[name="Hoederer"]  ...You've met all the Reunion leaders.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  What'd you think?
 </t>
   </si>
   <si>
@@ -1792,11 +1792,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  If you ask me, I’d say nothing out of the ordinary. The stuff they do is pretty par for the course for people like that.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  A strange bunch. There’s a child who seems to been purposefully pushed into that position to the point of becoming cruel, and then there’s a warrior whose toughness is beyond imagination.
+    <t xml:space="preserve">[name="W"]  If you ask me, I'd say nothing out of the ordinary. The stuff they do is pretty par for the course for people like that.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  A strange bunch. There's a child who seems to been purposefully pushed into that position to the point of becoming cruel, and then there's a warrior whose toughness is beyond imagination.
 </t>
   </si>
   <si>
@@ -1804,7 +1804,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  All I can say is, we’ve seen all kinds of people after fighting wars all these years.
+    <t xml:space="preserve">[name="W"]  All I can say is, we've seen all kinds of people after fighting wars all these years.
 </t>
   </si>
   <si>
@@ -1824,7 +1824,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  Yeah, but you don’t see Sarkaz like that every day. He claims to be with Ursus, saying he broke off contact with Kazdel long ago.
+    <t xml:space="preserve">[name="W"]  Yeah, but you don't see Sarkaz like that every day. He claims to be with Ursus, saying he broke off contact with Kazdel long ago.
 </t>
   </si>
   <si>
@@ -1840,7 +1840,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  And you, don’t you love thinking about things? Instead of philosophizing, why not have a chat with someone like that?
+    <t xml:space="preserve">[name="Ines"]  And you, don't you love thinking about things? Instead of philosophizing, why not have a chat with someone like that?
 </t>
   </si>
   <si>
@@ -1848,7 +1848,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  You’re talking about...
+    <t xml:space="preserve">[name="Hoederer"]  You're talking about...
 </t>
   </si>
   <si>
@@ -1888,7 +1888,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  You’re just an Ursusian.
+    <t xml:space="preserve">[name="W"]  You're just an Ursusian.
 </t>
   </si>
   <si>
@@ -1952,7 +1952,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">5:22 AM \ Clear
+    <t xml:space="preserve">5:22 A.M. \ Clear
 </t>
   </si>
   <si>
@@ -1972,7 +1972,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Reunion Soldier"]  First, your team defected. The people who went after them reported back that you weren’t even trying.
+    <t xml:space="preserve">[name="Reunion Soldier"]  First, your team defected. The people who went after them reported back that you weren't even trying.
 </t>
   </si>
   <si>
@@ -1984,11 +1984,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  Okay, okay, I got it. The client’s dissatisfied with our performance. Can you say that with fewer words?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  We’re simply in a 'cooperative' relationship, and I’m the leader now. If I get on this table and start grovelling, will Talulah be happy?
+    <t xml:space="preserve">[name="W"]  Okay, okay, I got it. The client's dissatisfied with our performance. Can you say that with fewer words?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  We're simply in a 'cooperative' relationship, and I'm the leader now. If I get on this table and start grovelling, will Talulah be happy?
 </t>
   </si>
   <si>
@@ -2004,11 +2004,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  If you’ve figured it out, hurry up and crawl back to that dragon girl. I’ll tell her what she wants to know soon enough, so don’t rush me.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Reunion Soldier"]  There’s one other thing.
+    <t xml:space="preserve">[name="W"]  If you've figured it out, hurry up and crawl back to that dragon girl. I'll tell her what she wants to know soon enough, so don't rush me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Soldier"]  There's one other thing.
 </t>
   </si>
   <si>
@@ -2024,7 +2024,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  ...There’s no need to get pushy with me.
+    <t xml:space="preserve">[name="W"]  ...There's no need to get pushy with me.
 </t>
   </si>
   <si>
@@ -2036,7 +2036,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  So... where’s the body?
+    <t xml:space="preserve">[name="W"]  So... where's the body?
 </t>
   </si>
   <si>
@@ -2044,7 +2044,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  I’m talking about the enemy’s corpses. Ines wouldn’t use such flashy, destructive Arts.
+    <t xml:space="preserve">[name="W"]  I'm talking about the enemy's corpses. Ines wouldn't use such flashy, destructive Arts.
 </t>
   </si>
   <si>
@@ -2052,15 +2052,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  Don’t you think you’re being a bit too blatant here?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Reunion Soldier"]  I don’t know what you’re talking about.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  ...So, from your side’s point of view, how should this situation be handled?
+    <t xml:space="preserve">[name="W"]  Don't you think you're being a bit too blatant here?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Soldier"]  I don't know what you're talking about.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  ...So, from your side's point of view, how should this situation be handled?
 </t>
   </si>
   <si>
@@ -2068,7 +2068,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Reunion Soldier"]  The Leader won’t investigate your responsibility in this just yet, so you should handle it yourself.
+    <t xml:space="preserve">[name="Reunion Soldier"]  The Leader won't investigate your responsibility in this just yet, so you should handle it yourself.
 </t>
   </si>
   <si>
@@ -2084,7 +2084,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  ...Didn’t really think that I’d take some random excuse, did you?
+    <t xml:space="preserve">[name="W"]  ...Didn't really think that I'd take some random excuse, did you?
 </t>
   </si>
   <si>
@@ -2104,11 +2104,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Reunion Soldier"]  What’s the meaning of this?!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  ...Don’t get me wrong. The death of one Sarkaz won’t affect the outcome of the next battle.
+    <t xml:space="preserve">[name="Reunion Soldier"]  What's the meaning of this?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  ...Don't get me wrong. The death of one Sarkaz won't affect the outcome of the next battle.
 </t>
   </si>
   <si>
@@ -2116,15 +2116,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  If you don’t believe me, you’re welcome to try me.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Reunion Soldier"]  ...I’ll make sure our Leader hears about your true attitude.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Reunion Soldier"]  There won’t be a next time.
+    <t xml:space="preserve">[name="W"]  If you don't believe me, you're welcome to try me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Soldier"]  ...I'll make sure our Leader hears about your true attitude.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Soldier"]  There won't be a next time.
 </t>
   </si>
   <si>
@@ -2132,7 +2132,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  You heard ‘em.
+    <t xml:space="preserve">[name="W"]  You heard 'em.
 </t>
   </si>
   <si>
@@ -2140,7 +2140,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  If they could put half this much effort into their actual battles, they wouldn’t be getting their asses handed to them so badly.
+    <t xml:space="preserve">[name="W"]  If they could put half this much effort into their actual battles, they wouldn't be getting their asses handed to them so badly.
 </t>
   </si>
   <si>
@@ -2148,11 +2148,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  ...I didn’t deliberately let him go. I just didn’t want those idiotic Infected to kill a Sarkaz I brought here.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  ...The old you would’ve slaughtered Flamebringer on the spot to get Reunion’s attention off of you.
+    <t xml:space="preserve">[name="W"]  ...I didn't deliberately let him go. I just didn't want those idiotic Infected to kill a Sarkaz I brought here.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  ...The old you would've slaughtered Flamebringer on the spot to get Reunion's attention off of you.
 </t>
   </si>
   <si>
@@ -2160,7 +2160,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  Eh? Was I the only one who couldn’t remember his codename? How embarrassing.
+    <t xml:space="preserve">[name="W"]  Eh? Was I the only one who couldn't remember his codename? How embarrassing.
 </t>
   </si>
   <si>
@@ -2168,15 +2168,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  Now’s not the time...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  She... I’ll have someone identify her, identify her c— ...Tch.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  Let’s talk business first.
+    <t xml:space="preserve">[name="W"]  Now's not the time...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  She... I'll have someone identify her, identify her c— ...Tch.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  Let's talk business first.
 </t>
   </si>
   <si>
@@ -2184,19 +2184,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  First, Ines wanted to warn you that something’s wrong with Talulah. She must’ve seen something more specific, but I’m not clear on that.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  All she told me was, Talulah apparently had 'two shadows.' From her reaction, this isn’t some common byproduct of Arts interference.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  That damn coward... Why wouldn’t she ever be straightforward...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  Second, the old man has left. Received an order to go fetch something. Talulah didn’t even make any efforts to hide it.
+    <t xml:space="preserve">[name="Hoederer"]  First, Ines wanted to warn you that something's wrong with Talulah. She must've seen something more specific, but I'm not clear on that.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  All she told me was, Talulah apparently had 'two shadows.' From her reaction, this isn't some common byproduct of Arts interference.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  That damn coward... Why wouldn't she ever be straightforward...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  Second, the old man has left. Received an order to go fetch something. Talulah didn't even make any efforts to hide it.
 </t>
   </si>
   <si>
@@ -2216,11 +2216,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  ...Too noisy. Since it’s all good news anyway, let me have some peace and quiet.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  You’ve had your hand on the hilt of your blade... ever since you walked through the door.
+    <t xml:space="preserve">[name="W"]  ...Too noisy. Since it's all good news anyway, let me have some peace and quiet.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  You've had your hand on the hilt of your blade... ever since you walked through the door.
 </t>
   </si>
   <si>
@@ -2236,7 +2236,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  That’s not important.
+    <t xml:space="preserve">[name="Hoederer"]  That's not important.
 </t>
   </si>
   <si>
@@ -2256,11 +2256,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  The Regent will not sit idly and watch them lose control. If you can’t give him a suitable answer, Londinium’s summons will destroy everything you’ve painstakingly put together.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  Ironically, I still don’t know what you’re trying to accomplish, even now.
+    <t xml:space="preserve">[name="Hoederer"]  The Regent will not sit idly and watch them lose control. If you can't give him a suitable answer, Londinium's summons will destroy everything you've painstakingly put together.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  Ironically, I still don't know what you're trying to accomplish, even now.
 </t>
   </si>
   <si>
@@ -2268,7 +2268,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  Just, don’t think you can handle everything alone, W. You’ll come to regret it sooner or later, just like me.
+    <t xml:space="preserve">[name="Hoederer"]  Just, don't think you can handle everything alone, W. You'll come to regret it sooner or later, just like me.
 </t>
   </si>
   <si>
@@ -2276,7 +2276,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  Really? Who’s still left on Rhodes Island now?
+    <t xml:space="preserve">[name="Hoederer"]  Really? Who's still left on Rhodes Island now?
 </t>
   </si>
   <si>
@@ -2284,11 +2284,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  I’ve seen your interactions with the messenger. You’ve been investigating Rhodes Island’s trail.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  That drug company... I had assumed they only got caught up in that war, but turns out, the truth isn’t so simple.
+    <t xml:space="preserve">[name="Hoederer"]  I've seen your interactions with the messenger. You've been investigating Rhodes Island's trail.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  That drug company... I had assumed they only got caught up in that war, but turns out, the truth isn't so simple.
 </t>
   </si>
   <si>
@@ -2308,11 +2308,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  In the past, I would’ve seen this as a sign of untrustworthiness.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  But by the looks of things, you didn’t plan to keep that secret for long anyway.
+    <t xml:space="preserve">[name="Hoederer"]  In the past, I would've seen this as a sign of untrustworthiness.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  But by the looks of things, you didn't plan to keep that secret for long anyway.
 </t>
   </si>
   <si>
@@ -2320,15 +2320,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  If you’ve ever fought in a battle, you’re bound to know some people who have a bit of a reputation.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  After all, if those people have been fighting tooth and nail to hang on, there’s no getting around it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  What’s your plan now? We shouldn’t have had to fight against them in the first place.
+    <t xml:space="preserve">[name="W"]  If you've ever fought in a battle, you're bound to know some people who have a bit of a reputation.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  After all, if those people have been fighting tooth and nail to hang on, there's no getting around it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  What's your plan now? We shouldn't have had to fight against them in the first place.
 </t>
   </si>
   <si>
@@ -2348,11 +2348,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  You said you’d help me do this one thing. We agreed on it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  Dishonest mercenaries are worth just as much as dead mercenaries, so I don’t mind making some extra arrangements.
+    <t xml:space="preserve">[name="W"]  You said you'd help me do this one thing. We agreed on it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  Dishonest mercenaries are worth just as much as dead mercenaries, so I don't mind making some extra arrangements.
 </t>
   </si>
   <si>
@@ -2360,15 +2360,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  And soon... I’ll have to leave too.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  Oh, I haven’t heard about this before. Where to?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  I’ll head back to Victoria with the messenger. It’ll be about a three or four-month trip. We’ll leave tomorrow morning before sunrise.
+    <t xml:space="preserve">[name="Hoederer"]  And soon... I'll have to leave too.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  Oh, I haven't heard about this before. Where to?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  I'll head back to Victoria with the messenger. It'll be about a three or four-month trip. We'll leave tomorrow morning before sunrise.
 </t>
   </si>
   <si>
@@ -2376,7 +2376,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  You’d probably be better off fleeing back to Kazdel.
+    <t xml:space="preserve">[name="W"]  You'd probably be better off fleeing back to Kazdel.
 </t>
   </si>
   <si>
@@ -2384,7 +2384,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  If nobody goes to report this, he’ll treat us like disowned children and cast us straight into the next warzone. A battlefield within his reach.
+    <t xml:space="preserve">[name="Hoederer"]  If nobody goes to report this, he'll treat us like disowned children and cast us straight into the next warzone. A battlefield within his reach.
 </t>
   </si>
   <si>
@@ -2392,7 +2392,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  You’re taking this risk to cover for me? Why would you do that?
+    <t xml:space="preserve">[name="W"]  You're taking this risk to cover for me? Why would you do that?
 </t>
   </si>
   <si>
@@ -2400,27 +2400,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  Though Her Majesty is no longer here, there’s a part of her left in this piece of shit, no good squad.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  How come I’ve never seen it?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  Mm. No matter how perverse the Sarkaz’s personalities and methods may be, judging from the results, they’re still fighting for that lofty, unrealistic idea.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  ...Do you even know what you’re talking about?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  We’ve known each other for a long time, W.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  That’s all.
+    <t xml:space="preserve">[name="Hoederer"]  Though Her Majesty is no longer here, there's a part of her left in this piece of shit, no good squad.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  How come I've never seen it?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  Mm. No matter how perverse the Sarkaz's personalities and methods may be, judging from the results, they're still fighting for that lofty, unrealistic idea.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  ...Do you even know what you're talking about?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  We've known each other for a long time, W.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  That's all.
 </t>
   </si>
   <si>
@@ -2428,7 +2428,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  This is your best opportunity to escape Kazdel. Leave from here, past Lungmen and Ursus, to the distant lands beyond. I’m willing to keep one eye closed.
+    <t xml:space="preserve">[name="W"]  This is your best opportunity to escape Kazdel. Leave from here, past Lungmen and Ursus, to the distant lands beyond. I'm willing to keep one eye closed.
 </t>
   </si>
   <si>
@@ -2444,11 +2444,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  When it’s my turn to collect, I’d like some of my debtors to still be alive.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  I wouldn’t necessarily be going there to die. Depending on the Regent’s mood, there are many possible outcomes.
+    <t xml:space="preserve">[name="W"]  When it's my turn to collect, I'd like some of my debtors to still be alive.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  I wouldn't necessarily be going there to die. Depending on the Regent's mood, there are many possible outcomes.
 </t>
   </si>
   <si>
@@ -2460,15 +2460,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  I’ve left Kazdel. And I’m about to leave here. What’s the worst that could happen? Patriot has already taught me enough.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  You’ve been influenced by him a lot, just from your short time here.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  Just like you were, with Theresa. It’s all the same, isn’t it?
+    <t xml:space="preserve">[name="Hoederer"]  I've left Kazdel. And I'm about to leave here. What's the worst that could happen? Patriot has already taught me enough.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  You've been influenced by him a lot, just from your short time here.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  Just like you were, with Theresa. It's all the same, isn't it?
 </t>
   </si>
   <si>
@@ -2484,23 +2484,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  I’ve thought about that before. Just so you know, Garcin was always suspicious of you. He even gave me the order to kill you once.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  Oh? Sounds like things would’ve been a bit more entertaining if you had listened to him.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  Sorry, but I’m not into the same kind of stuff you’re into.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  Now, let’s decide.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  Hm... I won’t deny that I’m curious about what Theresis is up to.
+    <t xml:space="preserve">[name="Hoederer"]  I've thought about that before. Just so you know, Garcin was always suspicious of you. He even gave me the order to kill you once.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  Oh? Sounds like things would've been a bit more entertaining if you had listened to him.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  Sorry, but I'm not into the same kind of stuff you're into.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  Now, let's decide.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  Hm... I won't deny that I'm curious about what Theresis is up to.
 </t>
   </si>
   <si>
@@ -2508,11 +2508,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  That’s right. Even if you rejected my proposal, I don’t plan to let you keep running the show.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  You’re not gonna say that this is for my good, right?
+    <t xml:space="preserve">[name="Hoederer"]  That's right. Even if you rejected my proposal, I don't plan to let you keep running the show.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  You're not gonna say that this is for my good, right?
 </t>
   </si>
   <si>
@@ -2520,7 +2520,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  ...How disappointing, you’ve just gone right back to your old ways. I thought you were going to keep falling.
+    <t xml:space="preserve">[name="W"]  ...How disappointing, you've just gone right back to your old ways. I thought you were going to keep falling.
 </t>
   </si>
   <si>
@@ -2528,11 +2528,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  Why don’t you go ask Ines?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  That’s a really unfunny joke.
+    <t xml:space="preserve">[name="Hoederer"]  Why don't you go ask Ines?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  That's a really unfunny joke.
 </t>
   </si>
   <si>
@@ -2552,11 +2552,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  Maybe. No matter how good you might be at hiding it, we’ve worked together for far too many years.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  Who’s to say, maybe we trusted you this whole time.
+    <t xml:space="preserve">[name="Hoederer"]  Maybe. No matter how good you might be at hiding it, we've worked together for far too many years.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  Who's to say, maybe we trusted you this whole time.
 </t>
   </si>
   <si>
@@ -2564,7 +2564,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Reunion Soldier"]  ...Oh, it’s you. Sarkaz mercenary, Hoederer, huh?
+    <t xml:space="preserve">[name="Reunion Soldier"]  ...Oh, it's you. Sarkaz mercenary, Hoederer, huh?
 </t>
   </si>
   <si>
@@ -2572,7 +2572,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  Before I leave, there’s something I’d like to confirm...
+    <t xml:space="preserve">[name="Hoederer"]  Before I leave, there's something I'd like to confirm...
 </t>
   </si>
   <si>
@@ -2600,7 +2600,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  Ursursian, you’re pretty calm for someone who just saw a companion fall in front of your eyes.
+    <t xml:space="preserve">[name="Hoederer"]  Ursursian, you're pretty calm for someone who just saw a companion fall in front of your eyes.
 </t>
   </si>
   <si>
@@ -2608,15 +2608,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  If Ines was still here, that’s definitely what she’d say.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Reunion Soldier"]  So that’s what this is about. It’s all too common for people to vent their anger on the Infected over a fallen comrade.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Reunion Soldier"]  I just thought you would’ve been a little smarter than W.
+    <t xml:space="preserve">[name="Hoederer"]  If Ines was still here, that's definitely what she'd say.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Soldier"]  So that's what this is about. It's all too common for people to vent their anger on the Infected over a fallen comrade.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Soldier"]  I just thought you would've been a little smarter than W.
 </t>
   </si>
   <si>
@@ -2624,15 +2624,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  Yeah, looking back, I’ve been a bit overprotective of her. Always have been.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  But not because I was afraid she’d get in trouble. You see, I was more afraid that I’d have nobody to kill.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  After all, I’m also a Sarkaz... the real deal.
+    <t xml:space="preserve">[name="Hoederer"]  Yeah, looking back, I've been a bit overprotective of her. Always have been.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  But not because I was afraid she'd get in trouble. You see, I was more afraid that I'd have nobody to kill.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  After all, I'm also a Sarkaz... the real deal.
 </t>
   </si>
   <si>
